--- a/data/trans_orig/Q25_A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Edad-trans_orig.xlsx
@@ -672,7 +672,7 @@
         <v>0.8295790785650968</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>1.318487637744521</v>
+        <v>1.31848763774452</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>1.774527421572684</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.041794874823625</v>
+        <v>1.091080853248601</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9942786380742398</v>
+        <v>0.9258574951659608</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6890239560272883</v>
+        <v>0.6696400799955982</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0.1666666666666667</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8461255608092734</v>
+        <v>0.8135521253559981</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.098739939923185</v>
+        <v>1.08288008507233</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.457352083581167</v>
+        <v>1.504191882774622</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.186290226621169</v>
+        <v>1.138674414954135</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.095554787179984</v>
+        <v>1.107372136957808</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1.213149239591409</v>
+        <v>1.188852515279161</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.280188091936357</v>
+        <v>1.304117595030256</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.004799519975419</v>
+        <v>1.009076394318179</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.477370245697577</v>
+        <v>3.458639690899944</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.803879505954881</v>
+        <v>2.608860895110188</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.870528554616889</v>
+        <v>1.825891756453597</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.687866402724497</v>
+        <v>1.790973079667813</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.196798681576197</v>
+        <v>2.079459946574002</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.622097376757319</v>
+        <v>2.652979360677094</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.121259080915488</v>
+        <v>3.095495454839876</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.63765740596032</v>
+        <v>3.46693945394728</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.356877483447384</v>
+        <v>2.420458313896336</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2.334310675744953</v>
+        <v>2.326127258215738</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.412659888510063</v>
+        <v>2.485921642233254</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>3.025709975467302</v>
+        <v>3.16365300857199</v>
       </c>
     </row>
     <row r="7">
@@ -799,7 +799,7 @@
         <v>4.189912572389123</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.863702350566614</v>
+        <v>2.863702350566613</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>3.999621054237426</v>
@@ -808,7 +808,7 @@
         <v>3.65288472865011</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>3.436635805405101</v>
+        <v>3.436635805405102</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>3.853292470172406</v>
@@ -817,10 +817,10 @@
         <v>3.661816758080248</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>5.662654315628944</v>
+        <v>5.662654315628942</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>3.686967022502648</v>
+        <v>3.686967022502647</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>3.391842218557326</v>
@@ -829,7 +829,7 @@
         <v>3.818859047787084</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>4.822011976384541</v>
+        <v>4.822011976384542</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.172275353609289</v>
+        <v>3.086951978817589</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.235379099283114</v>
+        <v>2.232084236802381</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.261886657988041</v>
+        <v>3.262851790997201</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.287426886102016</v>
+        <v>2.247919385722574</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.760697703592751</v>
+        <v>2.749377228013994</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.216029145963607</v>
+        <v>3.210169037304515</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.877251458919857</v>
+        <v>2.852846996590394</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>4.098847355817579</v>
+        <v>4.097514354859771</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.10209054801227</v>
+        <v>3.077792142155182</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2.889510128122901</v>
+        <v>2.921280449857496</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3.270374480493486</v>
+        <v>3.276965713837796</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>3.755685402810272</v>
+        <v>3.73799962061953</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.990166552108832</v>
+        <v>5.952437744452771</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.768538762619634</v>
+        <v>3.724580892662665</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.8963844422295</v>
+        <v>4.871124460611938</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.558050181063008</v>
+        <v>5.677176100777417</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>4.252279994247642</v>
+        <v>4.160661293311253</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>5.050624662745008</v>
+        <v>5.045172513078072</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>4.789024085743694</v>
+        <v>4.689786803731797</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>7.507229401448953</v>
+        <v>7.565994803117031</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>4.498385827217675</v>
+        <v>4.433600798194714</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.20060180721797</v>
+        <v>4.214085213825639</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4.50197179659495</v>
+        <v>4.498172452771072</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>6.234643450238624</v>
+        <v>6.2526271587813</v>
       </c>
     </row>
     <row r="10">
@@ -944,10 +944,10 @@
         <v>7.464101106835843</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>7.96667925114324</v>
+        <v>7.966679251143238</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.687473000878925</v>
+        <v>7.687473000878926</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>7.031190925375083</v>
@@ -956,16 +956,16 @@
         <v>8.059363082458892</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>6.750231665473023</v>
+        <v>6.750231665473024</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6.782383073595363</v>
+        <v>6.782383073595364</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6.312923872570167</v>
+        <v>6.312923872570169</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>7.785056791065621</v>
+        <v>7.785056791065622</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.862674612764381</v>
+        <v>4.834095238082368</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.870716952113</v>
+        <v>4.883949393077548</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.556795582514177</v>
+        <v>4.525880671375999</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.794353742489259</v>
+        <v>5.634671618234583</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.68059223976322</v>
+        <v>6.705550180056837</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.622701545053065</v>
+        <v>6.654404438111433</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.938809949846661</v>
+        <v>6.013560639720615</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.532282571519673</v>
+        <v>6.54595743830346</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.945262676363434</v>
+        <v>5.982157708015059</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6.070874651159527</v>
+        <v>6.081188090061244</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5.55732571405751</v>
+        <v>5.588056414500301</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.4932819755041</v>
+        <v>6.705882258638475</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.125714980406789</v>
+        <v>6.923907985687633</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.931641845981707</v>
+        <v>6.954508095889633</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.653677776989247</v>
+        <v>6.655066331778912</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.205082149563507</v>
+        <v>9.017549736734816</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.396752392888299</v>
+        <v>9.467281085446382</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.942257163968502</v>
+        <v>8.773364736702804</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.206015015131316</v>
+        <v>8.344436534155145</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.976933344545269</v>
+        <v>10.03096635692339</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.641633990724905</v>
+        <v>7.697195165102476</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7.64992805253007</v>
+        <v>7.640521894551061</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.224117663733518</v>
+        <v>7.184310148693592</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>8.944028994353706</v>
+        <v>9.050813115945449</v>
       </c>
     </row>
     <row r="13">
@@ -1074,7 +1074,7 @@
         <v>9.501472215979152</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9.991401279197003</v>
+        <v>9.991401279197005</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>11.47229289921464</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.124235587009626</v>
+        <v>6.192899501809652</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.185610061869832</v>
+        <v>8.284118393193832</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.587252188332648</v>
+        <v>8.591523195824719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10.01674682152887</v>
+        <v>10.04821362399761</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6.003722899018519</v>
+        <v>6.135298260142518</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>8.491995437994836</v>
+        <v>8.502950072227058</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>8.756804886114351</v>
+        <v>8.768993837762226</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>10.79719886086209</v>
+        <v>11.02875183180456</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>6.509825160322414</v>
+        <v>6.537899826726972</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8.661973013013432</v>
+        <v>8.567296593187864</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9.137594074143882</v>
+        <v>9.132126113719151</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>10.85094774579659</v>
+        <v>10.88369404234265</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.479736828271625</v>
+        <v>8.467130218005876</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.03609662433601</v>
+        <v>11.04655757891647</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.52418000297898</v>
+        <v>11.54027731521243</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13.09418870891375</v>
+        <v>13.03138979241241</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>9.66330550984525</v>
+        <v>9.695689193962293</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>11.97895340368829</v>
+        <v>12.17033028930646</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>11.78857558670478</v>
+        <v>11.91558847109906</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>14.10080582876849</v>
+        <v>14.21540424180399</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>8.493676769629861</v>
+        <v>8.460729319797382</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>10.90855092375026</v>
+        <v>10.90524716191934</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11.45134295425666</v>
+        <v>11.27131059607646</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>13.00029953522123</v>
+        <v>13.03314930482475</v>
       </c>
     </row>
     <row r="16">
@@ -1222,7 +1222,7 @@
         <v>9.589314834171637</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>10.75767061471172</v>
+        <v>10.75767061471171</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14.58060025822791</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.1766222394934</v>
+        <v>10.22309578520697</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>10.60786062617396</v>
+        <v>10.42505628391461</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.57724621545115</v>
+        <v>11.7331636772579</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13.63733846704966</v>
+        <v>13.58020996710855</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.255998428018915</v>
+        <v>7.173975575844418</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.644764843376963</v>
+        <v>7.637088748532771</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>8.768934561623151</v>
+        <v>8.780058982890827</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>12.89740293961102</v>
+        <v>12.85951197893813</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>10.23038718607025</v>
+        <v>10.16379440624753</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10.30482872222249</v>
+        <v>10.35252479079435</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11.3125132618844</v>
+        <v>11.13427596775439</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>13.84778786659696</v>
+        <v>13.76276071509361</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.28940810291049</v>
+        <v>13.12766586345105</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.70653982486088</v>
+        <v>13.93770229083763</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.88520022070609</v>
+        <v>14.89860771494908</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.66993150914983</v>
+        <v>16.87939800318793</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>15.10935546866697</v>
+        <v>15.26939277178263</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.02642933294009</v>
+        <v>11.71596950756702</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.39058564402827</v>
+        <v>13.25045049791548</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>16.41908519448396</v>
+        <v>16.47676396085065</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>12.95286627762589</v>
+        <v>12.91941596220046</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12.82499691263023</v>
+        <v>13.10147382168374</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13.978624028064</v>
+        <v>13.89230497553427</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>16.24357389279347</v>
+        <v>16.1493585118882</v>
       </c>
     </row>
     <row r="19">
@@ -1343,7 +1343,7 @@
         <v>13.85485049732602</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>15.54790073742197</v>
+        <v>15.54790073742198</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>15.98993896107723</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>12.17692871410543</v>
+        <v>12.060616817711</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>13.9289661438339</v>
+        <v>14.0132594060034</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14.27060131324164</v>
+        <v>14.24313518529354</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16.82931424095842</v>
+        <v>16.78367473619954</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>5.131730335087406</v>
+        <v>5.389268387496832</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>4.869065194511323</v>
+        <v>4.820536049805514</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>11.79585065864142</v>
+        <v>11.67111077197082</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>16.41804435425117</v>
+        <v>16.73388329788606</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>11.77321381185308</v>
+        <v>11.80329088892336</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13.49940726776757</v>
+        <v>13.59706241645297</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14.33497230667341</v>
+        <v>14.20545462025751</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>17.16260639221184</v>
+        <v>17.11245599603951</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>15.77537721826852</v>
+        <v>15.74068376946946</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>17.41685654743404</v>
+        <v>17.72445599469351</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18.06464638773112</v>
+        <v>17.80890449655828</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19.98458790310067</v>
+        <v>19.93240371711984</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>12.54254405720811</v>
+        <v>13.00682969030132</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>23.14710909083673</v>
+        <v>22.5449378820644</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>23.04238750409014</v>
+        <v>22.14980037666404</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>22.49156528121627</v>
+        <v>22.44465419857731</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>15.10142322936539</v>
+        <v>15.14225867335971</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17.15885274598138</v>
+        <v>17.2523682675894</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17.85075651776632</v>
+        <v>17.73811765423575</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>20.09514172836024</v>
+        <v>20.01113804056171</v>
       </c>
     </row>
     <row r="22">
@@ -1503,7 +1503,7 @@
         <v>17.72861943248695</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21.61594908134523</v>
+        <v>21.61594908134522</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>21.47105221739552</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>15.92767583355817</v>
+        <v>16.08154503678225</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>19.57186278232744</v>
+        <v>19.51704451591754</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>19.18844018906523</v>
+        <v>18.98239715964447</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23.90482772115924</v>
+        <v>23.83978963590475</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>9.960917657163275</v>
+        <v>10.36035576483004</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.367133354186127</v>
+        <v>8.167723074150858</v>
       </c>
       <c r="I23" s="5" t="n">
         <v>13.69395942207902</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>20.91942755823988</v>
+        <v>20.55976046718097</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>16.05527959833368</v>
+        <v>16.02922861004682</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>19.51577328005409</v>
+        <v>19.21510923839428</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>19.42757733327652</v>
+        <v>19.30962886321472</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>23.93475804207432</v>
+        <v>24.0565947188833</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.65247788901125</v>
+        <v>19.62909614265291</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.22248211981946</v>
+        <v>24.18971971326616</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23.28372396280498</v>
+        <v>23.12734870688495</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27.82337192318818</v>
+        <v>27.94533339230879</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>27.66057140705863</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.19735472091319</v>
+        <v>32.11554676980294</v>
       </c>
       <c r="I24" s="5" t="n">
         <v>60</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>31.09050479041416</v>
+        <v>31.01495897301812</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>19.93455906416571</v>
+        <v>19.58900991921482</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>24.19157639369076</v>
+        <v>24.1528318714147</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23.92324752973293</v>
+        <v>24.16389229857008</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>27.43272342580866</v>
+        <v>27.59979804339342</v>
       </c>
     </row>
     <row r="25">
@@ -1630,7 +1630,7 @@
         <v>7.638726250146461</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>8.842250992934423</v>
+        <v>8.842250992934424</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12.71082630216208</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>10.09949118674505</v>
+        <v>10.09643436366185</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>11.26647432602179</v>
+        <v>11.32158670540252</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11.84479799312496</v>
+        <v>11.87337577119894</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15.3424547222866</v>
+        <v>15.35356097270669</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>5.904848807605857</v>
+        <v>5.92037208681711</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>6.886660759799391</v>
+        <v>6.950583872911235</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>7.977203281394078</v>
+        <v>7.891183112685335</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>11.77653837083501</v>
+        <v>11.7472465945469</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>9.062462827635505</v>
+        <v>9.024521765975388</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10.04580945820862</v>
+        <v>10.11026179967735</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10.71961951181199</v>
+        <v>10.67937450473614</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>14.35687830725331</v>
+        <v>14.30875700828867</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.52909905033899</v>
+        <v>11.65311453990771</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>13.00876711850167</v>
+        <v>12.98998346950143</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13.50040230485479</v>
+        <v>13.56927123371711</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>17.15873239511694</v>
+        <v>17.19972058821724</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>7.598267089314185</v>
+        <v>7.698159208658576</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>8.463927824228147</v>
+        <v>8.480505270021313</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>10.01152819676427</v>
+        <v>9.923717487087945</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>13.67531025531293</v>
+        <v>13.67174075114231</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>10.30095016228985</v>
+        <v>10.29021657089358</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>11.31015174429272</v>
+        <v>11.30885895067325</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>12.02207497640434</v>
+        <v>11.96988579043929</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>15.77859402234775</v>
+        <v>15.66926758940386</v>
       </c>
     </row>
     <row r="28">
